--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="23145" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Role" sheetId="1" r:id="rId1"/>
+    <sheet name="roles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +26,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yw</author>
+  </authors>
+  <commentList>
+    <comment ref="Q4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yw:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0近战
+1远程</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>导出类型</t>
   </si>
@@ -41,10 +74,130 @@
     <t>heroName</t>
   </si>
   <si>
+    <t>baseStrength</t>
+  </si>
+  <si>
+    <t>baseIntelligence</t>
+  </si>
+  <si>
+    <t>baseAgility</t>
+  </si>
+  <si>
+    <t>strengthGain</t>
+  </si>
+  <si>
+    <t>intelligenceGain</t>
+  </si>
+  <si>
+    <t>agilityGain</t>
+  </si>
+  <si>
+    <t>baseAtk</t>
+  </si>
+  <si>
+    <t>baseAtkSpeed</t>
+  </si>
+  <si>
+    <t>baseArmor</t>
+  </si>
+  <si>
+    <t>baseMagicResistance</t>
+  </si>
+  <si>
+    <t>baseHp</t>
+  </si>
+  <si>
+    <t>baseMana</t>
+  </si>
+  <si>
+    <t>hpRecoverySpeed</t>
+  </si>
+  <si>
+    <t>manaRecoverySpeed</t>
+  </si>
+  <si>
+    <t>atkType</t>
+  </si>
+  <si>
+    <t>preAtkTime</t>
+  </si>
+  <si>
+    <t>atkRange</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>atkProjectileSpeed</t>
+  </si>
+  <si>
+    <t>atkProjectilePos</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
-    <t>势力名称</t>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>初始力量</t>
+  </si>
+  <si>
+    <t>初始智力</t>
+  </si>
+  <si>
+    <t>初始敏捷</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>智力成长</t>
+  </si>
+  <si>
+    <t>敏捷成长</t>
+  </si>
+  <si>
+    <t>初始攻击</t>
+  </si>
+  <si>
+    <t>初始攻击速度</t>
+  </si>
+  <si>
+    <t>初始护甲</t>
+  </si>
+  <si>
+    <t>初始魔法抗性</t>
+  </si>
+  <si>
+    <t>初始血量</t>
+  </si>
+  <si>
+    <t>初始魔法</t>
+  </si>
+  <si>
+    <t>血量恢复速率</t>
+  </si>
+  <si>
+    <t>魔法恢复速率</t>
+  </si>
+  <si>
+    <t>攻击类型</t>
+  </si>
+  <si>
+    <t>攻击前摇时间</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>攻击弹道速度</t>
+  </si>
+  <si>
+    <t>攻击弹道初始位置</t>
   </si>
   <si>
     <t>sc</t>
@@ -59,7 +212,19 @@
     <t>string</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>?double</t>
+  </si>
+  <si>
+    <t>?double[]</t>
+  </si>
+  <si>
     <t>影魔</t>
+  </si>
+  <si>
+    <t>[0.5,0.58]</t>
   </si>
 </sst>
 </file>
@@ -72,7 +237,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,11 +247,16 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -97,22 +267,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="9"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -337,6 +500,17 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Lucida Calligraphy"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1165,28 +1339,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1594,87 +1780,598 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="26.2" customWidth="1"/>
-    <col min="3" max="3" width="88.2583333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="9.675" customWidth="1"/>
+    <col min="2" max="2" width="12.175" customWidth="1"/>
+    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.175" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.175" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.675" customWidth="1"/>
+    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.675" customWidth="1"/>
+    <col min="16" max="16" width="22.175" customWidth="1"/>
+    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
+    <col min="18" max="18" width="11.175" customWidth="1"/>
+    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="18.5" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="15"/>
-    <row r="3" ht="15.75" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="2" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A7" s="10">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="I7" s="10">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>100</v>
+      </c>
+      <c r="N7" s="10">
+        <v>80</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="S7" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="T7" s="10">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="U7" s="10">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
+      <c r="V7" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -68,70 +68,70 @@
     <t>array</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>heroName</t>
-  </si>
-  <si>
-    <t>baseStrength</t>
-  </si>
-  <si>
-    <t>baseIntelligence</t>
-  </si>
-  <si>
-    <t>baseAgility</t>
-  </si>
-  <si>
-    <t>strengthGain</t>
-  </si>
-  <si>
-    <t>intelligenceGain</t>
-  </si>
-  <si>
-    <t>agilityGain</t>
-  </si>
-  <si>
-    <t>baseAtk</t>
-  </si>
-  <si>
-    <t>baseAtkSpeed</t>
-  </si>
-  <si>
-    <t>baseArmor</t>
-  </si>
-  <si>
-    <t>baseMagicResistance</t>
-  </si>
-  <si>
-    <t>baseHp</t>
-  </si>
-  <si>
-    <t>baseMana</t>
-  </si>
-  <si>
-    <t>hpRecoverySpeed</t>
-  </si>
-  <si>
-    <t>manaRecoverySpeed</t>
-  </si>
-  <si>
-    <t>atkType</t>
-  </si>
-  <si>
-    <t>preAtkTime</t>
-  </si>
-  <si>
-    <t>atkRange</t>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-  </si>
-  <si>
-    <t>atkProjectileSpeed</t>
-  </si>
-  <si>
-    <t>atkProjectilePos</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>HeroName</t>
+  </si>
+  <si>
+    <t>BaseStrength</t>
+  </si>
+  <si>
+    <t>BaseIntelligence</t>
+  </si>
+  <si>
+    <t>BaseAgility</t>
+  </si>
+  <si>
+    <t>StrengthGain</t>
+  </si>
+  <si>
+    <t>IntelligenceGain</t>
+  </si>
+  <si>
+    <t>AgilityGain</t>
+  </si>
+  <si>
+    <t>BaseAtk</t>
+  </si>
+  <si>
+    <t>BaseAtkSpeed</t>
+  </si>
+  <si>
+    <t>BaseArmor</t>
+  </si>
+  <si>
+    <t>BaseMagicResistance</t>
+  </si>
+  <si>
+    <t>BaseHp</t>
+  </si>
+  <si>
+    <t>BaseMana</t>
+  </si>
+  <si>
+    <t>HpRecoverySpeed</t>
+  </si>
+  <si>
+    <t>ManaRecoverySpeed</t>
+  </si>
+  <si>
+    <t>AtkType</t>
+  </si>
+  <si>
+    <t>PreAtkTime</t>
+  </si>
+  <si>
+    <t>AtkRange</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>AtkProjectileSpeed</t>
+  </si>
+  <si>
+    <t>AtkProjectilePos</t>
   </si>
   <si>
     <t>id唯一</t>
@@ -503,12 +503,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1339,7 +1339,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1366,12 +1366,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1782,31 +1776,31 @@
   <sheetPr/>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.675" customWidth="1"/>
-    <col min="2" max="2" width="12.175" customWidth="1"/>
-    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.175" customWidth="1"/>
-    <col min="5" max="5" width="12.675" customWidth="1"/>
-    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.175" customWidth="1"/>
-    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
-    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.675" customWidth="1"/>
-    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.675" customWidth="1"/>
-    <col min="16" max="16" width="22.175" customWidth="1"/>
-    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.175" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
+    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
+    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
+    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
+    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
+    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
+    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
+    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
+    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
+    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
+    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -2126,76 +2120,76 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A7" s="10">
+      <c r="A7" s="3">
         <v>1001</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="3">
         <v>21</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="3">
         <v>21</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="3">
         <v>24</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="3">
         <v>1.5</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="3">
         <v>1.7</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="3">
         <v>2.7</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="3">
         <v>23</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="3">
         <v>80</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="3">
         <v>0.5</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="3">
         <v>0.66</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="3">
         <v>5.5</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="3">
         <v>4</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="3">
         <v>8</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>yw</author>
   </authors>
   <commentList>
-    <comment ref="Q4" authorId="0">
+    <comment ref="R4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>导出类型</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>HeroName</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>id唯一</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>角色名称</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
   </si>
   <si>
     <t>?double[]</t>
+  </si>
+  <si>
+    <t>SF</t>
   </si>
   <si>
     <t>影魔</t>
@@ -1774,33 +1783,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
-    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
-    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
-    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
-    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
-    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
-    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
-    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
-    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
-    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
-    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
-    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
-    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
-    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
-    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
+    <col min="1" max="1" width="9.675" customWidth="1"/>
+    <col min="2" max="2" width="12.175" customWidth="1"/>
+    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.175" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.175" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.675" customWidth="1"/>
+    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.675" customWidth="1"/>
+    <col min="16" max="16" width="22.175" customWidth="1"/>
+    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
+    <col min="18" max="18" width="11.175" customWidth="1"/>
+    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -1847,7 +1856,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:22">
+    <row r="3" ht="18.5" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1914,241 +1923,253 @@
       <c r="V3" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="W3" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:22">
+    <row r="4" ht="18.5" customHeight="1" spans="1:23">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:22">
+    <row r="5" ht="18.5" customHeight="1" spans="1:23">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:22">
+    <row r="6" ht="18.5" customHeight="1" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:22">
+    <row r="7" ht="18.5" customHeight="1" spans="1:23">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="3">
         <v>21</v>
       </c>
       <c r="E7" s="3">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>1.7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>2.7</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>23</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -2157,34 +2178,37 @@
         <v>1</v>
       </c>
       <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>80</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.5</v>
       </c>
       <c r="P7" s="3">
         <v>0.5</v>
       </c>
       <c r="Q7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>0.66</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>5.5</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>4</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>8</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>54</v>
+      <c r="W7" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -2193,175 +2217,183 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
     <cfRule type="duplicateValues" dxfId="1" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
     <cfRule type="duplicateValues" dxfId="1" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
     <cfRule type="duplicateValues" dxfId="1" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
     <cfRule type="duplicateValues" dxfId="1" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
     <cfRule type="duplicateValues" dxfId="1" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
     <cfRule type="duplicateValues" dxfId="0" priority="75"/>
     <cfRule type="duplicateValues" dxfId="1" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
     <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
     <cfRule type="duplicateValues" dxfId="1" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
     <cfRule type="duplicateValues" dxfId="1" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
     <cfRule type="duplicateValues" dxfId="0" priority="77"/>
     <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
     <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
+  <conditionalFormatting sqref="V4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>导出类型</t>
   </si>
@@ -137,6 +137,9 @@
     <t>AtkProjectilePos</t>
   </si>
   <si>
+    <t>ColliderRadius</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
   </si>
   <si>
     <t>攻击弹道初始位置</t>
+  </si>
+  <si>
+    <t>碰撞体积半径</t>
   </si>
   <si>
     <t>sc</t>
@@ -1783,33 +1789,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.675" customWidth="1"/>
-    <col min="2" max="2" width="12.175" customWidth="1"/>
-    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.175" customWidth="1"/>
-    <col min="5" max="5" width="12.675" customWidth="1"/>
-    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.175" customWidth="1"/>
-    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
-    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.675" customWidth="1"/>
-    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.675" customWidth="1"/>
-    <col min="16" max="16" width="22.175" customWidth="1"/>
-    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.175" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
+    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
+    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
+    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
+    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
+    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
+    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
+    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
+    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
+    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
+    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
+    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -1856,7 +1863,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:23">
+    <row r="3" ht="18.5" customHeight="1" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1926,229 +1933,241 @@
       <c r="W3" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="X3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:23">
+    <row r="4" ht="18.5" customHeight="1" spans="1:24">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:23">
+    <row r="5" ht="18.5" customHeight="1" spans="1:24">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:23">
+    <row r="6" ht="18.5" customHeight="1" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="S6" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:23">
+    <row r="7" ht="18.5" customHeight="1" spans="1:24">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3">
         <v>21</v>
@@ -2208,7 +2227,10 @@
         <v>8</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -2217,183 +2239,191 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
     <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="W4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>yw</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0">
+    <comment ref="S4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>导出类型</t>
   </si>
@@ -101,6 +101,9 @@
     <t>BaseAtkSpeed</t>
   </si>
   <si>
+    <t>BaseAtkInterval</t>
+  </si>
+  <si>
     <t>BaseArmor</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t>初始攻击速度</t>
+  </si>
+  <si>
+    <t>初始攻击间隔</t>
   </si>
   <si>
     <t>初始护甲</t>
@@ -1789,34 +1795,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
-    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
-    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
-    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
-    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
-    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
-    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
-    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
-    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
-    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
-    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
-    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
-    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
-    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
-    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
-    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
+    <col min="1" max="1" width="9.675" customWidth="1"/>
+    <col min="2" max="2" width="12.175" customWidth="1"/>
+    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.175" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.175" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.675" customWidth="1"/>
+    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.675" customWidth="1"/>
+    <col min="16" max="16" width="22.175" customWidth="1"/>
+    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
+    <col min="18" max="18" width="11.175" customWidth="1"/>
+    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
+    <col min="24" max="24" width="19.05" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -1863,7 +1869,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:24">
+    <row r="3" ht="18.5" customHeight="1" spans="1:25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1936,238 +1942,250 @@
       <c r="X3" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="Y3" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:24">
+    <row r="4" ht="18.5" customHeight="1" spans="1:25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:24">
+    <row r="5" ht="18.5" customHeight="1" spans="1:25">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:24">
+    <row r="6" ht="18.5" customHeight="1" spans="1:25">
       <c r="A6" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>54</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="9" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:24">
+    <row r="7" ht="18.5" customHeight="1" spans="1:25">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3">
         <v>21</v>
@@ -2191,45 +2209,48 @@
         <v>23</v>
       </c>
       <c r="K7" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L7" s="3">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="M7" s="3">
         <v>1</v>
       </c>
       <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>100</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>80</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0.5</v>
       </c>
       <c r="Q7" s="3">
         <v>0.5</v>
       </c>
       <c r="R7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="3">
         <v>1</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>0.66</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>5.5</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>4</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>8</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X7" s="3">
+      <c r="X7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="3">
         <v>0.6</v>
       </c>
     </row>
@@ -2239,191 +2260,199 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
     <cfRule type="duplicateValues" dxfId="0" priority="111"/>
     <cfRule type="duplicateValues" dxfId="1" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="F3">
     <cfRule type="duplicateValues" dxfId="0" priority="107"/>
     <cfRule type="duplicateValues" dxfId="1" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="duplicateValues" dxfId="0" priority="95"/>
     <cfRule type="duplicateValues" dxfId="1" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="duplicateValues" dxfId="0" priority="91"/>
     <cfRule type="duplicateValues" dxfId="1" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
     <cfRule type="duplicateValues" dxfId="0" priority="87"/>
     <cfRule type="duplicateValues" dxfId="1" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
     <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
     <cfRule type="duplicateValues" dxfId="0" priority="89"/>
     <cfRule type="duplicateValues" dxfId="1" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="P4">
     <cfRule type="duplicateValues" dxfId="0" priority="85"/>
     <cfRule type="duplicateValues" dxfId="1" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
     <cfRule type="duplicateValues" dxfId="0" priority="45"/>
     <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
     <cfRule type="duplicateValues" dxfId="1" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
+  <conditionalFormatting sqref="V4">
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
     <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="W4">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -77,13 +77,13 @@
     <t>HeroName</t>
   </si>
   <si>
-    <t>BaseStrength</t>
-  </si>
-  <si>
-    <t>BaseIntelligence</t>
-  </si>
-  <si>
-    <t>BaseAgility</t>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Agility</t>
   </si>
   <si>
     <t>StrengthGain</t>
@@ -95,25 +95,25 @@
     <t>AgilityGain</t>
   </si>
   <si>
-    <t>BaseAtk</t>
-  </si>
-  <si>
-    <t>BaseAtkSpeed</t>
-  </si>
-  <si>
-    <t>BaseAtkInterval</t>
-  </si>
-  <si>
-    <t>BaseArmor</t>
-  </si>
-  <si>
-    <t>BaseMagicResistance</t>
-  </si>
-  <si>
-    <t>BaseHp</t>
-  </si>
-  <si>
-    <t>BaseMana</t>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AtkSpeed</t>
+  </si>
+  <si>
+    <t>AtkInterval</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>MagicResistance</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Mana</t>
   </si>
   <si>
     <t>HpRecoverySpeed</t>
@@ -1797,8 +1797,8 @@
   <sheetPr/>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="23145" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>导出类型</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>[0.5,0.58]</t>
+  </si>
+  <si>
+    <t>MonkeyKing</t>
+  </si>
+  <si>
+    <t>齐天大圣</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1804,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2254,6 +2260,81 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="8" ht="16.5" spans="1:25">
+      <c r="A8" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>8</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
     <row r="14" spans="2:3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -32,7 +32,21 @@
     <author>yw</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0">
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0:力量
+1:智力
+2:敏捷</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>导出类型</t>
   </si>
@@ -77,6 +91,9 @@
     <t>HeroName</t>
   </si>
   <si>
+    <t>MajorAttr</t>
+  </si>
+  <si>
     <t>Strength</t>
   </si>
   <si>
@@ -150,6 +167,9 @@
   </si>
   <si>
     <t>角色名称</t>
+  </si>
+  <si>
+    <t>主属性</t>
   </si>
   <si>
     <t>初始力量</t>
@@ -530,12 +550,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1801,10 +1821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1875,7 +1895,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:25">
+    <row r="3" ht="18.5" customHeight="1" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1951,387 +1971,405 @@
       <c r="Y3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="Z3" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:25">
+    <row r="4" ht="18.5" customHeight="1" spans="1:26">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:25">
+    <row r="5" ht="18.5" customHeight="1" spans="1:26">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:25">
+    <row r="6" ht="18.5" customHeight="1" spans="1:26">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:25">
+    <row r="7" ht="18.5" customHeight="1" spans="1:26">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
         <v>21</v>
       </c>
       <c r="F7" s="3">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
         <v>24</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>1.5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1.7</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>2.7</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>23</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>100</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>1.7</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
       </c>
       <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
         <v>100</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>80</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.5</v>
       </c>
       <c r="R7" s="3">
         <v>0.5</v>
       </c>
       <c r="S7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="3">
         <v>1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>0.66</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>5.5</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>4</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>8</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:25">
+    <row r="8" ht="16.5" spans="1:26">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
         <v>21</v>
       </c>
       <c r="F8" s="3">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3">
         <v>24</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1.5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1.7</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2.7</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1.7</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
       </c>
       <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.5</v>
       </c>
       <c r="R8" s="3">
         <v>0.5</v>
       </c>
       <c r="S8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>0.66</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1.5</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3">
         <v>0.6</v>
       </c>
     </row>
@@ -2341,199 +2379,207 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="duplicateValues" dxfId="0" priority="115"/>
     <cfRule type="duplicateValues" dxfId="1" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="duplicateValues" dxfId="0" priority="111"/>
     <cfRule type="duplicateValues" dxfId="1" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="duplicateValues" dxfId="0" priority="99"/>
     <cfRule type="duplicateValues" dxfId="1" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="J3">
     <cfRule type="duplicateValues" dxfId="0" priority="95"/>
     <cfRule type="duplicateValues" dxfId="1" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
     <cfRule type="duplicateValues" dxfId="0" priority="91"/>
     <cfRule type="duplicateValues" dxfId="1" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
     <cfRule type="duplicateValues" dxfId="0" priority="41"/>
     <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
     <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
     <cfRule type="duplicateValues" dxfId="0" priority="93"/>
     <cfRule type="duplicateValues" dxfId="1" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="Q4">
     <cfRule type="duplicateValues" dxfId="0" priority="89"/>
     <cfRule type="duplicateValues" dxfId="1" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
     <cfRule type="duplicateValues" dxfId="0" priority="49"/>
     <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
     <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
+  <conditionalFormatting sqref="W4">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
     <cfRule type="duplicateValues" dxfId="1" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
+  <conditionalFormatting sqref="X4">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -1823,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255"/>
+    <workbookView windowWidth="25596" windowHeight="12095"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>导出类型</t>
   </si>
@@ -250,13 +250,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>?double</t>
-  </si>
-  <si>
-    <t>?double[]</t>
+    <t>?number</t>
+  </si>
+  <si>
+    <t>?number[]</t>
   </si>
   <si>
     <t>SF</t>
@@ -265,7 +262,7 @@
     <t>影魔</t>
   </si>
   <si>
-    <t>[0.5,0.58]</t>
+    <t>[5000,5800]</t>
   </si>
   <si>
     <t>MonkeyKing</t>
@@ -1823,32 +1820,33 @@
   <sheetPr/>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.675" customWidth="1"/>
-    <col min="2" max="2" width="12.175" customWidth="1"/>
-    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.175" customWidth="1"/>
-    <col min="5" max="5" width="12.675" customWidth="1"/>
-    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.175" customWidth="1"/>
-    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
-    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.675" customWidth="1"/>
-    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.675" customWidth="1"/>
-    <col min="16" max="16" width="22.175" customWidth="1"/>
-    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.175" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
+    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
+    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
+    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
+    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
+    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
+    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
+    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
+    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
+    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
+    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
+    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
+    <col min="25" max="25" width="13.5925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -2149,70 +2147,70 @@
         <v>56</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="U6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="Z6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:26">
@@ -2220,157 +2218,155 @@
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>21</v>
+        <v>210000</v>
       </c>
       <c r="F7" s="3">
-        <v>21</v>
+        <v>210000</v>
       </c>
       <c r="G7" s="3">
-        <v>24</v>
+        <v>240000</v>
       </c>
       <c r="H7" s="3">
-        <v>1.5</v>
+        <v>15000</v>
       </c>
       <c r="I7" s="3">
-        <v>1.7</v>
+        <v>17000</v>
       </c>
       <c r="J7" s="3">
-        <v>2.7</v>
+        <v>27000</v>
       </c>
       <c r="K7" s="3">
-        <v>23</v>
+        <v>230000</v>
       </c>
       <c r="L7" s="3">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="M7" s="3">
-        <v>1.7</v>
+        <v>17000</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="O7" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="3">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="Q7" s="3">
-        <v>80</v>
+        <v>800000</v>
       </c>
       <c r="R7" s="3">
-        <v>0.5</v>
+        <v>5000</v>
       </c>
       <c r="S7" s="3">
-        <v>0.5</v>
+        <v>5000</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
       </c>
       <c r="U7" s="3">
-        <v>0.66</v>
+        <v>6600</v>
       </c>
       <c r="V7" s="3">
-        <v>5.5</v>
+        <v>55000</v>
       </c>
       <c r="W7" s="3">
-        <v>4</v>
+        <v>40000</v>
       </c>
       <c r="X7" s="3">
         <v>8</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="3">
-        <v>0.6</v>
+        <v>6000</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:26">
+    <row r="8" ht="30" spans="1:26">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>21</v>
+        <v>210000</v>
       </c>
       <c r="F8" s="3">
-        <v>21</v>
+        <v>210000</v>
       </c>
       <c r="G8" s="3">
-        <v>24</v>
+        <v>240000</v>
       </c>
       <c r="H8" s="3">
-        <v>1.5</v>
+        <v>15000</v>
       </c>
       <c r="I8" s="3">
-        <v>1.7</v>
+        <v>17000</v>
       </c>
       <c r="J8" s="3">
-        <v>2.7</v>
+        <v>27000</v>
       </c>
       <c r="K8" s="3">
-        <v>23</v>
+        <v>230000</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="M8" s="3">
-        <v>1.7</v>
+        <v>17000</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="Q8" s="3">
-        <v>80</v>
+        <v>800000</v>
       </c>
       <c r="R8" s="3">
-        <v>0.5</v>
+        <v>5000</v>
       </c>
       <c r="S8" s="3">
-        <v>0.5</v>
+        <v>5000</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>0.66</v>
+        <v>6600</v>
       </c>
       <c r="V8" s="3">
-        <v>1.5</v>
+        <v>15000</v>
       </c>
       <c r="W8" s="3">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
-        <v>8</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3">
-        <v>0.6</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="2:3">

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25596" windowHeight="12095"/>
+    <workbookView windowWidth="24015" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>导出类型</t>
   </si>
@@ -160,6 +160,9 @@
     <t>ColliderRadius</t>
   </si>
   <si>
+    <t>ProjectileOffset</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>碰撞体积半径</t>
+  </si>
+  <si>
+    <t>弹道击中偏移</t>
   </si>
   <si>
     <t>sc</t>
@@ -1818,35 +1824,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
-    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
-    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
-    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
-    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
-    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
-    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
-    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
-    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
-    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
-    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
-    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
-    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
-    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
-    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
-    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
-    <col min="25" max="25" width="13.5925925925926" customWidth="1"/>
+    <col min="1" max="1" width="9.675" customWidth="1"/>
+    <col min="2" max="2" width="12.175" customWidth="1"/>
+    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.175" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.175" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.675" customWidth="1"/>
+    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.675" customWidth="1"/>
+    <col min="16" max="16" width="22.175" customWidth="1"/>
+    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
+    <col min="18" max="18" width="11.175" customWidth="1"/>
+    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
+    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="25" max="25" width="13.5916666666667" customWidth="1"/>
+    <col min="27" max="27" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -1893,7 +1900,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:26">
+    <row r="3" ht="18.5" customHeight="1" spans="1:27">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1972,256 +1979,268 @@
       <c r="Z3" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="AA3" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:26">
+    <row r="4" ht="18.5" customHeight="1" spans="1:27">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:26">
+    <row r="5" ht="18.5" customHeight="1" spans="1:27">
       <c r="A5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:26">
+    <row r="6" ht="18.5" customHeight="1" spans="1:27">
       <c r="A6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>56</v>
+      <c r="AA6" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:26">
+    <row r="7" ht="18.5" customHeight="1" spans="1:27">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -2287,21 +2306,24 @@
         <v>8</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="3">
         <v>6000</v>
       </c>
+      <c r="AA7" s="3">
+        <v>-6000</v>
+      </c>
     </row>
-    <row r="8" ht="30" spans="1:26">
+    <row r="8" ht="16.5" spans="1:27">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -2367,6 +2389,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3">
         <v>6000</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>-6000</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -2375,207 +2400,215 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="0" priority="51"/>
     <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24015" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="roles" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>导出类型</t>
   </si>
@@ -163,6 +163,9 @@
     <t>ProjectileOffset</t>
   </si>
   <si>
+    <t>Skills</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>弹道击中偏移</t>
   </si>
   <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -269,6 +275,9 @@
   </si>
   <si>
     <t>[5000,5800]</t>
+  </si>
+  <si>
+    <t>[11001001]</t>
   </si>
   <si>
     <t>MonkeyKing</t>
@@ -1824,10 +1833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1900,7 +1909,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:27">
+    <row r="3" ht="18.5" customHeight="1" spans="1:28">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1982,265 +1991,277 @@
       <c r="AA3" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="AB3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:27">
+    <row r="4" ht="18.5" customHeight="1" spans="1:28">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:27">
+    <row r="5" ht="18.5" customHeight="1" spans="1:28">
       <c r="A5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:27">
+    <row r="6" ht="18.5" customHeight="1" spans="1:28">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AA6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:27">
+    <row r="7" ht="18.5" customHeight="1" spans="1:28">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -2306,7 +2327,7 @@
         <v>8</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z7" s="3">
         <v>6000</v>
@@ -2314,16 +2335,19 @@
       <c r="AA7" s="3">
         <v>-6000</v>
       </c>
+      <c r="AB7" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" ht="16.5" spans="1:27">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -2393,6 +2417,7 @@
       <c r="AA8" s="3">
         <v>-6000</v>
       </c>
+      <c r="AB8" s="3"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="10"/>
@@ -2400,213 +2425,221 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
     <cfRule type="duplicateValues" dxfId="1" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
     <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
+  <conditionalFormatting sqref="AB4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -1836,7 +1836,7 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2324,7 +2324,7 @@
         <v>40000</v>
       </c>
       <c r="X7" s="3">
-        <v>8</v>
+        <v>80000</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>66</v>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25596" windowHeight="12095"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -1835,34 +1835,34 @@
   <sheetPr/>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.675" customWidth="1"/>
-    <col min="2" max="2" width="12.175" customWidth="1"/>
-    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.175" customWidth="1"/>
-    <col min="5" max="5" width="12.675" customWidth="1"/>
-    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.175" customWidth="1"/>
-    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
-    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.675" customWidth="1"/>
-    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.675" customWidth="1"/>
-    <col min="16" max="16" width="22.175" customWidth="1"/>
-    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.175" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
-    <col min="25" max="25" width="13.5916666666667" customWidth="1"/>
-    <col min="27" max="27" width="18.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
+    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
+    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
+    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
+    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
+    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
+    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
+    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
+    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
+    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
+    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
+    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
+    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
+    <col min="25" max="25" width="13.5925925925926" customWidth="1"/>
+    <col min="27" max="27" width="18.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -2333,13 +2333,13 @@
         <v>6000</v>
       </c>
       <c r="AA7" s="3">
-        <v>-6000</v>
+        <v>-9000</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" ht="30" spans="1:28">
       <c r="A8" s="3">
         <v>1002</v>
       </c>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25596" windowHeight="12095"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>Armor</t>
   </si>
   <si>
-    <t>MagicResistance</t>
+    <t>RoleMagicResistance</t>
   </si>
   <si>
     <t>Hp</t>
@@ -208,7 +208,7 @@
     <t>初始护甲</t>
   </si>
   <si>
-    <t>初始魔法抗性</t>
+    <t>角色基础魔法抗性</t>
   </si>
   <si>
     <t>初始血量</t>
@@ -1835,34 +1835,34 @@
   <sheetPr/>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.67592592592593" customWidth="1"/>
-    <col min="2" max="2" width="12.1759259259259" customWidth="1"/>
-    <col min="3" max="3" width="14.5092592592593" customWidth="1"/>
-    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
-    <col min="5" max="5" width="12.6759259259259" customWidth="1"/>
-    <col min="6" max="6" width="14.3425925925926" customWidth="1"/>
-    <col min="7" max="7" width="18.1759259259259" customWidth="1"/>
-    <col min="8" max="8" width="12.3425925925926" customWidth="1"/>
-    <col min="9" max="9" width="10.0092592592593" customWidth="1"/>
-    <col min="10" max="10" width="15.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="12.5092592592593" customWidth="1"/>
-    <col min="12" max="12" width="17.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="9.67592592592593" customWidth="1"/>
-    <col min="14" max="14" width="12.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="19.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="22.1759259259259" customWidth="1"/>
-    <col min="17" max="17" width="9.84259259259259" customWidth="1"/>
-    <col min="18" max="18" width="11.1759259259259" customWidth="1"/>
-    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
-    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
-    <col min="25" max="25" width="13.5925925925926" customWidth="1"/>
-    <col min="27" max="27" width="18.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="9.675" customWidth="1"/>
+    <col min="2" max="2" width="12.175" customWidth="1"/>
+    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.175" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="6" width="14.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.175" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.675" customWidth="1"/>
+    <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.675" customWidth="1"/>
+    <col min="16" max="16" width="22.175" customWidth="1"/>
+    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
+    <col min="18" max="18" width="11.175" customWidth="1"/>
+    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
+    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="25" max="25" width="13.5916666666667" customWidth="1"/>
+    <col min="27" max="27" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -2297,7 +2297,7 @@
         <v>10000</v>
       </c>
       <c r="O7" s="3">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P7" s="3">
         <v>1000000</v>
@@ -2339,7 +2339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>10000</v>
       </c>
       <c r="O8" s="3">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P8" s="3">
         <v>1000000</v>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0">
+    <comment ref="U4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>导出类型</t>
   </si>
@@ -127,6 +127,9 @@
     <t>RoleMagicResistance</t>
   </si>
   <si>
+    <t>RoleMiss</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>角色基础魔法抗性</t>
+  </si>
+  <si>
+    <t>角色基础闪避</t>
   </si>
   <si>
     <t>初始血量</t>
@@ -1833,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1856,16 +1862,16 @@
     <col min="13" max="13" width="9.675" customWidth="1"/>
     <col min="14" max="14" width="12.0083333333333" customWidth="1"/>
     <col min="15" max="15" width="19.675" customWidth="1"/>
-    <col min="16" max="16" width="22.175" customWidth="1"/>
-    <col min="17" max="17" width="9.84166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.175" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
-    <col min="25" max="25" width="13.5916666666667" customWidth="1"/>
-    <col min="27" max="27" width="18.3833333333333" customWidth="1"/>
+    <col min="16" max="17" width="22.175" customWidth="1"/>
+    <col min="18" max="18" width="9.84166666666667" customWidth="1"/>
+    <col min="19" max="19" width="11.175" customWidth="1"/>
+    <col min="22" max="22" width="17.8583333333333" customWidth="1"/>
+    <col min="25" max="25" width="19.05" customWidth="1"/>
+    <col min="26" max="26" width="13.5916666666667" customWidth="1"/>
+    <col min="28" max="28" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:18">
+    <row r="1" ht="18.5" customHeight="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,8 +1894,9 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:18">
+    <row r="2" ht="18.5" customHeight="1" spans="1:19">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1908,8 +1915,9 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:28">
+    <row r="3" ht="18.5" customHeight="1" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1994,274 +2002,286 @@
       <c r="AB3" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="AC3" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:28">
+    <row r="4" ht="18.5" customHeight="1" spans="1:29">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:28">
+    <row r="5" ht="18.5" customHeight="1" spans="1:29">
       <c r="A5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:28">
+    <row r="6" ht="18.5" customHeight="1" spans="1:29">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>62</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:28">
+    <row r="7" ht="18.5" customHeight="1" spans="1:29">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -2300,54 +2320,57 @@
         <v>2500</v>
       </c>
       <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>1000000</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>800000</v>
-      </c>
-      <c r="R7" s="3">
-        <v>5000</v>
       </c>
       <c r="S7" s="3">
         <v>5000</v>
       </c>
       <c r="T7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U7" s="3">
         <v>1</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>6600</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>55000</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>40000</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>80000</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="3">
         <v>6000</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB7" s="3" t="s">
-        <v>67</v>
+      <c r="AC7" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" ht="16.5" spans="1:29">
       <c r="A8" s="3">
         <v>1002</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -2386,38 +2409,41 @@
         <v>2500</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1000000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5000</v>
       </c>
       <c r="S8" s="3">
         <v>5000</v>
       </c>
       <c r="T8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>40000</v>
       </c>
-      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3">
         <v>6000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="10"/>
@@ -2425,223 +2451,231 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="duplicateValues" dxfId="0" priority="127"/>
     <cfRule type="duplicateValues" dxfId="1" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="duplicateValues" dxfId="0" priority="123"/>
     <cfRule type="duplicateValues" dxfId="1" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="duplicateValues" dxfId="0" priority="111"/>
     <cfRule type="duplicateValues" dxfId="1" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="J3">
     <cfRule type="duplicateValues" dxfId="0" priority="107"/>
     <cfRule type="duplicateValues" dxfId="1" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
     <cfRule type="duplicateValues" dxfId="0" priority="103"/>
     <cfRule type="duplicateValues" dxfId="1" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
     <cfRule type="duplicateValues" dxfId="0" priority="53"/>
     <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
     <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
     <cfRule type="duplicateValues" dxfId="0" priority="105"/>
     <cfRule type="duplicateValues" dxfId="1" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
+  <conditionalFormatting sqref="R4">
     <cfRule type="duplicateValues" dxfId="0" priority="101"/>
     <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
     <cfRule type="duplicateValues" dxfId="0" priority="51"/>
     <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="X4">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
     <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
     <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Role-角色配置.xlsx
+++ b/Excel/Role-角色配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -1841,8 +1841,8 @@
   <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
